--- a/docs/labDIEE_2025-I/FORMATO_Movimiento_transitorio_bienes-LABDIEE.xlsx
+++ b/docs/labDIEE_2025-I/FORMATO_Movimiento_transitorio_bienes-LABDIEE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traslado Externo-PrestamoENcasa" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="181">
   <si>
     <t xml:space="preserve">Macroproceso: Laboratorio de eléctrica y electrónica </t>
   </si>
@@ -86,15 +86,24 @@
     <t xml:space="preserve">DOCENTE A CARGO:</t>
   </si>
   <si>
+    <t xml:space="preserve">Diana Natali Maldonado Ramirez</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOCENTE DE LABDIEE</t>
   </si>
   <si>
     <t xml:space="preserve">ASIGNATURA DE LABORATORIO:</t>
   </si>
   <si>
+    <t xml:space="preserve">ELECTRONICA DIGITAL I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grupo inscrito en el SIA:</t>
   </si>
   <si>
+    <t xml:space="preserve">G5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Equipo de trabajo:</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">FECHA DE INGRESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/05/2023 al 02/06/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Nº ITEM</t>
@@ -154,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">Equipo devuelto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarjeta de desarrollo Altera Cyclone IV</t>
   </si>
   <si>
     <t xml:space="preserve">EQUIPOS DE MENOR CUANTIA</t>
@@ -338,9 +347,6 @@
     <t xml:space="preserve">Generador de señales ICL8038</t>
   </si>
   <si>
-    <t xml:space="preserve">G5</t>
-  </si>
-  <si>
     <t xml:space="preserve">E5</t>
   </si>
   <si>
@@ -380,9 +386,6 @@
     <t xml:space="preserve">E7</t>
   </si>
   <si>
-    <t xml:space="preserve">ELECTRONICA DIGITAL I</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Francisco Javier Amortegui Gil </t>
   </si>
   <si>
@@ -461,9 +464,6 @@
     <t xml:space="preserve">pamozucat@unal.edu.co&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarjeta de desarrollo Altera Cyclone IV</t>
-  </si>
-  <si>
     <t xml:space="preserve">G12</t>
   </si>
   <si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t xml:space="preserve">Multimetro Digital OWON OW16B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Natali Maldonado Ramirez</t>
   </si>
   <si>
     <t xml:space="preserve">dnmaldonador@unal.edu.co</t>
@@ -1094,7 +1091,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1315,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1873,7 +1870,9 @@
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -1883,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -1931,23 +1930,27 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="32"/>
+      <c r="L21" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="M21" s="26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="33"/>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2001,12 +2004,12 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="36"/>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2035,12 +2038,12 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="36"/>
@@ -2061,7 +2064,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2069,12 +2072,12 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="36"/>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -2103,12 +2106,12 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="36"/>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2137,7 +2140,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2191,11 +2194,11 @@
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -2289,12 +2292,10 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32" s="43"/>
-      <c r="I32" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="I32" s="42"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
@@ -2371,10 +2372,10 @@
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
@@ -2386,10 +2387,10 @@
       <c r="J35" s="48"/>
       <c r="K35" s="48"/>
       <c r="L35" s="48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M35" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
@@ -2408,7 +2409,7 @@
     <row r="36" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="47"/>
       <c r="B36" s="48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
@@ -2421,11 +2422,11 @@
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
       <c r="M36" s="47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2443,7 +2444,9 @@
       <c r="A37" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
@@ -2451,7 +2454,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="51"/>
@@ -2483,7 +2486,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -2515,7 +2518,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
       <c r="I39" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J39" s="51"/>
       <c r="K39" s="51"/>
@@ -2547,7 +2550,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J40" s="51"/>
       <c r="K40" s="51"/>
@@ -2579,7 +2582,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="51"/>
@@ -2611,7 +2614,7 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
@@ -2643,7 +2646,7 @@
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
       <c r="I43" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J43" s="51"/>
       <c r="K43" s="51"/>
@@ -2675,7 +2678,7 @@
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
@@ -2707,7 +2710,7 @@
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
@@ -2739,7 +2742,7 @@
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
       <c r="I46" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
@@ -2771,7 +2774,7 @@
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
       <c r="I47" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="48" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
@@ -2808,7 +2811,7 @@
       <c r="L48" s="56"/>
       <c r="M48" s="56"/>
       <c r="N48" s="57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O48" s="57"/>
       <c r="P48" s="1"/>
@@ -2825,7 +2828,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2885,7 +2888,7 @@
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2915,7 +2918,7 @@
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3011,7 +3014,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="61" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D55" s="61"/>
       <c r="E55" s="61"/>
@@ -3019,7 +3022,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
@@ -3072,7 +3075,7 @@
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="64" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -3082,7 +3085,7 @@
       <c r="G57" s="64"/>
       <c r="H57" s="28"/>
       <c r="I57" s="61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J57" s="61"/>
       <c r="K57" s="61"/>
@@ -3143,7 +3146,7 @@
       <c r="G59" s="64"/>
       <c r="H59" s="28"/>
       <c r="I59" s="61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
@@ -3204,7 +3207,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="61"/>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="63" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="66"/>
       <c r="C63" s="66"/>
@@ -3296,7 +3299,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="67"/>
       <c r="M64" s="68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N64" s="68"/>
       <c r="O64" s="68"/>
@@ -9823,7 +9826,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -9841,35 +9844,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H1" s="69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I1" s="69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J1" s="70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9890,312 +9893,312 @@
         <v>14</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" s="74" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="74" t="n">
         <v>2</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="73"/>
       <c r="B5" s="72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I5" s="74"/>
       <c r="J5" s="71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74"/>
       <c r="B6" s="77" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I6" s="74"/>
       <c r="J6" s="71" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="71"/>
       <c r="B7" s="72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="71" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74"/>
       <c r="B8" s="72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="74"/>
       <c r="H8" s="75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I8" s="74"/>
       <c r="J8" s="71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74"/>
       <c r="B9" s="72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="74"/>
       <c r="H9" s="75" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="71" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74"/>
       <c r="B10" s="72" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="H10" s="75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="74"/>
       <c r="B11" s="72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
       <c r="H11" s="75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74"/>
       <c r="B12" s="72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="74"/>
       <c r="H12" s="75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74"/>
       <c r="B13" s="78" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
       <c r="H13" s="75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I13" s="74"/>
       <c r="J13" s="71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74"/>
       <c r="B14" s="78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="74"/>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
       <c r="H14" s="75" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="I14" s="74"/>
       <c r="J14" s="71" t="s">
@@ -10317,19 +10320,19 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="74"/>
       <c r="B20" s="73" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C20" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="73" t="s">
         <v>169</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>170</v>
       </c>
       <c r="E20" s="74"/>
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I20" s="74"/>
       <c r="J20" s="73"/>
@@ -10344,7 +10347,7 @@
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="73"/>
@@ -10359,7 +10362,7 @@
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" s="74"/>
       <c r="J22" s="73"/>
@@ -10374,7 +10377,7 @@
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="73"/>
@@ -10389,7 +10392,7 @@
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I24" s="74"/>
       <c r="J24" s="73"/>
@@ -10404,7 +10407,7 @@
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I25" s="74"/>
       <c r="J25" s="73"/>
@@ -10417,7 +10420,7 @@
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I26" s="74"/>
       <c r="J26" s="73"/>
@@ -10432,7 +10435,7 @@
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="74"/>
       <c r="J27" s="73"/>
@@ -10447,7 +10450,7 @@
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I28" s="74"/>
       <c r="J28" s="73"/>
@@ -10462,7 +10465,7 @@
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" s="74"/>
       <c r="J29" s="73"/>
@@ -10477,7 +10480,7 @@
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30" s="74"/>
       <c r="J30" s="73"/>

--- a/docs/labDIEE_2025-I/FORMATO_Movimiento_transitorio_bienes-LABDIEE.xlsx
+++ b/docs/labDIEE_2025-I/FORMATO_Movimiento_transitorio_bienes-LABDIEE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="181">
   <si>
     <t xml:space="preserve">Macroproceso: Laboratorio de eléctrica y electrónica </t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grupo inscrito en el SIA:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G5</t>
   </si>
   <si>
     <t xml:space="preserve">Equipo de trabajo:</t>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">Generador de señales ICL8038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5</t>
   </si>
   <si>
     <t xml:space="preserve">E5</t>
@@ -1312,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1946,11 +1946,9 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="32"/>
+      <c r="M21" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="N21" s="26"/>
       <c r="O21" s="33"/>
@@ -1996,7 +1994,7 @@
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2004,12 +2002,12 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="36"/>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2038,12 +2036,12 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="36"/>
@@ -2064,7 +2062,7 @@
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -2072,12 +2070,12 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="35"/>
       <c r="L25" s="36"/>
@@ -2098,7 +2096,7 @@
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -2106,12 +2104,12 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="36"/>
@@ -2132,7 +2130,7 @@
     </row>
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2140,7 +2138,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
@@ -2164,7 +2162,7 @@
     </row>
     <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2194,11 +2192,11 @@
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2226,7 +2224,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -2284,7 +2282,7 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -2292,7 +2290,7 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="42"/>
@@ -2372,10 +2370,10 @@
     </row>
     <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>40</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
@@ -2387,10 +2385,10 @@
       <c r="J35" s="48"/>
       <c r="K35" s="48"/>
       <c r="L35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="49" t="s">
         <v>41</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>42</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
@@ -2409,7 +2407,7 @@
     <row r="36" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="47"/>
       <c r="B36" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
@@ -2422,11 +2420,11 @@
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
       <c r="M36" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2445,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
@@ -2454,7 +2452,7 @@
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
       <c r="I37" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J37" s="51"/>
       <c r="K37" s="51"/>
@@ -2486,7 +2484,7 @@
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
       <c r="I38" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
@@ -2518,7 +2516,7 @@
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
       <c r="I39" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39" s="51"/>
       <c r="K39" s="51"/>
@@ -2550,7 +2548,7 @@
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
       <c r="I40" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40" s="51"/>
       <c r="K40" s="51"/>
@@ -2582,7 +2580,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
       <c r="I41" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41" s="51"/>
       <c r="K41" s="51"/>
@@ -2614,7 +2612,7 @@
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
@@ -2646,7 +2644,7 @@
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
       <c r="I43" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J43" s="51"/>
       <c r="K43" s="51"/>
@@ -2678,7 +2676,7 @@
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
       <c r="I44" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
@@ -2710,7 +2708,7 @@
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
@@ -2742,7 +2740,7 @@
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
       <c r="I46" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
@@ -2774,7 +2772,7 @@
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
       <c r="I47" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
@@ -2796,7 +2794,7 @@
     </row>
     <row r="48" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="56"/>
       <c r="C48" s="56"/>
@@ -2811,7 +2809,7 @@
       <c r="L48" s="56"/>
       <c r="M48" s="56"/>
       <c r="N48" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O48" s="57"/>
       <c r="P48" s="1"/>
@@ -2828,7 +2826,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
@@ -2858,7 +2856,7 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -2888,7 +2886,7 @@
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -2918,7 +2916,7 @@
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -2948,7 +2946,7 @@
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3014,7 +3012,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="61"/>
       <c r="E55" s="61"/>
@@ -3022,7 +3020,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J55" s="61"/>
       <c r="K55" s="61"/>
@@ -3075,7 +3073,7 @@
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -3085,7 +3083,7 @@
       <c r="G57" s="64"/>
       <c r="H57" s="28"/>
       <c r="I57" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J57" s="61"/>
       <c r="K57" s="61"/>
@@ -3146,7 +3144,7 @@
       <c r="G59" s="64"/>
       <c r="H59" s="28"/>
       <c r="I59" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="61"/>
       <c r="K59" s="61"/>
@@ -3207,7 +3205,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="61"/>
@@ -3257,7 +3255,7 @@
     </row>
     <row r="63" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="66"/>
       <c r="C63" s="66"/>
@@ -3299,7 +3297,7 @@
       <c r="K64" s="67"/>
       <c r="L64" s="67"/>
       <c r="M64" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N64" s="68"/>
       <c r="O64" s="68"/>
@@ -9844,35 +9842,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="C1" s="69" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>65</v>
       </c>
       <c r="D1" s="69"/>
       <c r="E1" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="G1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="H1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="I1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="J1" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="K1" s="70" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="70" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9893,141 +9891,141 @@
         <v>14</v>
       </c>
       <c r="B3" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="D3" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="E3" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="F3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="G3" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="H3" s="75" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>79</v>
       </c>
       <c r="I3" s="74" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="D4" s="73" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>85</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="74" t="n">
         <v>2</v>
       </c>
       <c r="J4" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="71" t="s">
         <v>88</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="73"/>
       <c r="B5" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="D5" s="73" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="74"/>
       <c r="J5" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="71" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74"/>
       <c r="B6" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="D6" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="74"/>
       <c r="J6" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="71" t="s">
         <v>101</v>
-      </c>
-      <c r="K6" s="71" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="71"/>
       <c r="B7" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="D7" s="73" t="s">
         <v>104</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>105</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="71" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="K7" s="71" t="s">
         <v>107</v>
@@ -10198,7 +10196,7 @@
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
       <c r="H14" s="75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="74"/>
       <c r="J14" s="71" t="s">
